--- a/backend/downloads/excel_values.xlsx
+++ b/backend/downloads/excel_values.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,12 +466,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>401000.0</t>
+          <t>401000</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>401LR</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -484,14 +484,9 @@
           <t>Achat MB 878318</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>8235.5</t>
+          <t>8,235,50</t>
         </is>
       </c>
     </row>
@@ -503,12 +498,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>411000.0</t>
+          <t>411000</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>411MB</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -521,14 +516,9 @@
           <t>Achat MB 878318</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>-96.54</t>
-        </is>
-      </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>96,54</t>
         </is>
       </c>
     </row>
@@ -540,12 +530,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>445660.0</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>nan</t>
+          <t>445660</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -560,12 +545,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>520.31</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>nan</t>
+          <t>520,31</t>
         </is>
       </c>
     </row>
@@ -577,12 +557,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>nan</t>
+          <t>601100</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -597,12 +572,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4944.27</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>nan</t>
+          <t>4,944,27</t>
         </is>
       </c>
     </row>
@@ -614,12 +584,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>nan</t>
+          <t>602201</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -634,12 +599,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2242.03</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>nan</t>
+          <t>2,242,03</t>
         </is>
       </c>
     </row>
@@ -651,12 +611,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>nan</t>
+          <t>602202</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -671,12 +626,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>495.3</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>nan</t>
+          <t>495,30</t>
         </is>
       </c>
     </row>
@@ -688,12 +638,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>nan</t>
+          <t>602612</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -708,49 +653,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>34.89</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>13/07/2024</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>878318</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Achat MB 878318</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>95.24</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>nan</t>
+          <t>34,89</t>
         </is>
       </c>
     </row>

--- a/backend/downloads/excel_values.xlsx
+++ b/backend/downloads/excel_values.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,7 +486,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>8,235,50</t>
+          <t>8235,50</t>
         </is>
       </c>
     </row>
@@ -572,7 +572,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4,944,27</t>
+          <t>4944,27</t>
         </is>
       </c>
     </row>
@@ -584,7 +584,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>602201</t>
+          <t>601100</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -599,7 +599,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2,242,03</t>
+          <t>2242,03</t>
         </is>
       </c>
     </row>
@@ -611,7 +611,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>602202</t>
+          <t>602201</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -638,22 +638,49 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>602202</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>878318</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Achat MB 878318</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>34,89</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>13/07/2024</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>602612</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>878318</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Achat MB 878318</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>34,89</t>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>878318</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Achat MB 878318</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>95,24</t>
         </is>
       </c>
     </row>

--- a/backend/downloads/excel_values.xlsx
+++ b/backend/downloads/excel_values.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,7 +461,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>13/07/2024</t>
+          <t>16/07/2024</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -476,24 +476,24 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>878318</t>
+          <t>880455</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Achat MB 878318</t>
+          <t>Achat MB 880455</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>8235,50</t>
+          <t>0,00</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>13/07/2024</t>
+          <t>16/07/2024</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -508,24 +508,24 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>878318</t>
+          <t>880455</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Achat MB 878318</t>
+          <t>Achat MB 880455</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>96,54</t>
+          <t>0,00</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>13/07/2024</t>
+          <t>16/07/2024</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -535,24 +535,24 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>878318</t>
+          <t>880455</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Achat MB 878318</t>
+          <t>Achat MB 880455</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>520,31</t>
+          <t>350,26</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>13/07/2024</t>
+          <t>16/07/2024</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -562,125 +562,17 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>878318</t>
+          <t>880455</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Achat MB 878318</t>
+          <t>Achat MB 880455</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4944,27</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>13/07/2024</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>601100</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>878318</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Achat MB 878318</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2242,03</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>13/07/2024</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>602201</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>878318</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Achat MB 878318</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>495,30</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>13/07/2024</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>602202</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>878318</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Achat MB 878318</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>34,89</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>13/07/2024</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>602612</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>878318</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Achat MB 878318</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>95,24</t>
+          <t>315,54</t>
         </is>
       </c>
     </row>

--- a/backend/downloads/excel_values.xlsx
+++ b/backend/downloads/excel_values.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,7 +461,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>16/07/2024</t>
+          <t>17/10/2024</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -476,24 +476,24 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>880455</t>
+          <t>977724</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Achat MB 880455</t>
+          <t>Achat MB 977724</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>7199,03</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>16/07/2024</t>
+          <t>17/10/2024</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -508,24 +508,24 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>880455</t>
+          <t>977724</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Achat MB 880455</t>
+          <t>Achat MB 977724</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>654,99</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>16/07/2024</t>
+          <t>17/10/2024</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -535,24 +535,24 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>880455</t>
+          <t>977724</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Achat MB 880455</t>
+          <t>Achat MB 977724</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>350,26</t>
+          <t>741,41</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>16/07/2024</t>
+          <t>17/10/2024</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -562,17 +562,206 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>880455</t>
+          <t>977724</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Achat MB 880455</t>
+          <t>Achat MB 977724</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>315,54</t>
+          <t>1794,46</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>17/10/2024</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>601100</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>977724</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Achat MB 977724</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2902,67</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>17/10/2024</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>602201</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>977724</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Achat MB 977724</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>717,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>17/10/2024</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>606302</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>977724</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Achat MB 977724</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1585,99</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>17/10/2024</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>606401</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>977724</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Achat MB 977724</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>23,57</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>17/10/2024</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>623401</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>977724</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Achat MB 977724</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>17/10/2024</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>602610</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>977724</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Achat MB 977724</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>22,46</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>17/10/2024</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>602612</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>977724</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Achat MB 977724</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>66,46</t>
         </is>
       </c>
     </row>
